--- a/data/PMSP_dataset.xlsx
+++ b/data/PMSP_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d10b21f834252303/桌面/大三下/專題/GA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="11_C36D2856E769CEEBB9C125721384FA9EE6DCAC47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63B51740-7026-46D6-A40C-BBADB57CF886}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="11_C36D2856E769CEEBB9C125721384FA9EE6DCAC47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AD04706-FD18-40FD-BDE9-CDD8856F9BBC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Type" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>O1</t>
   </si>
@@ -109,6 +109,86 @@
   </si>
   <si>
     <t>J20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,10 +257,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -771,6 +847,226 @@
         <v>4</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -779,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1054,6 +1350,166 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
